--- a/scripts/WGS/paired end scripts.xlsx
+++ b/scripts/WGS/paired end scripts.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael.studivan/Documents/GitHub/SCTLD-resistance-genomics/WGS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael.studivan/Documents/GitHub/SCTLD-resistance-genomics/scripts/WGS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066F743A-4A15-A046-8CC0-28669D8C9E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D66E05F-69E9-2640-B26C-72085B7ADE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6880" yWindow="1560" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{ADDD3B2E-9B5B-4147-8B7E-5AA001AF2620}"/>
+    <workbookView xWindow="5740" yWindow="7520" windowWidth="28040" windowHeight="13780" activeTab="3" xr2:uid="{ADDD3B2E-9B5B-4147-8B7E-5AA001AF2620}"/>
   </bookViews>
   <sheets>
     <sheet name="files" sheetId="1" r:id="rId1"/>
     <sheet name="trim" sheetId="2" r:id="rId2"/>
     <sheet name="bowtie2" sheetId="3" r:id="rId3"/>
+    <sheet name="bowtie2 zoox" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="900">
   <si>
     <t>s001_R1_001.fastq.gz</t>
   </si>
@@ -2743,10 +2744,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -7089,8 +7096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC1F1D2-B679-814B-9F38-EC5D85B96CA3}">
   <dimension ref="A1:H180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H180"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9802,4 +9809,4164 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143EF5BE-63CA-CC49-BC27-68E2D94B7522}">
+  <dimension ref="A1:J180"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B1" t="str">
+        <f>A1&amp;".1.un"</f>
+        <v>s001.1.un</v>
+      </c>
+      <c r="D1" t="s">
+        <v>720</v>
+      </c>
+      <c r="E1" t="str">
+        <f>D1&amp;".2.un"</f>
+        <v>s001.2.un</v>
+      </c>
+      <c r="H1" t="s">
+        <v>720</v>
+      </c>
+      <c r="J1" t="str">
+        <f>"bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 "&amp;B1&amp;" -2 "&amp;E1&amp;" -S "&amp;H1&amp;".un.bt2.sam --no-unal --al-conc ./"&amp;H1&amp;".zoox --un-conc trash/"&amp;H1&amp;".junk"</f>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s001.1.un -2 s001.2.un -S s001.un.bt2.sam --no-unal --al-conc ./s001.zoox --un-conc trash/s001.junk</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B65" si="0">A2&amp;".1.un"</f>
+        <v>s002.1.un</v>
+      </c>
+      <c r="D2" t="s">
+        <v>721</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E65" si="1">D2&amp;".2.un"</f>
+        <v>s002.2.un</v>
+      </c>
+      <c r="H2" t="s">
+        <v>721</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" ref="J2:J65" si="2">"bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 "&amp;B2&amp;" -2 "&amp;E2&amp;" -S "&amp;H2&amp;".un.bt2.sam --no-unal --al-conc ./"&amp;H2&amp;".zoox --un-conc trash/"&amp;H2&amp;".junk"</f>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s002.1.un -2 s002.2.un -S s002.un.bt2.sam --no-unal --al-conc ./s002.zoox --un-conc trash/s002.junk</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>722</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>s003.1.un</v>
+      </c>
+      <c r="D3" t="s">
+        <v>722</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="1"/>
+        <v>s003.2.un</v>
+      </c>
+      <c r="H3" t="s">
+        <v>722</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s003.1.un -2 s003.2.un -S s003.un.bt2.sam --no-unal --al-conc ./s003.zoox --un-conc trash/s003.junk</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>723</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>s004.1.un</v>
+      </c>
+      <c r="D4" t="s">
+        <v>723</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>s004.2.un</v>
+      </c>
+      <c r="H4" t="s">
+        <v>723</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s004.1.un -2 s004.2.un -S s004.un.bt2.sam --no-unal --al-conc ./s004.zoox --un-conc trash/s004.junk</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>724</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>s005.1.un</v>
+      </c>
+      <c r="D5" t="s">
+        <v>724</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>s005.2.un</v>
+      </c>
+      <c r="H5" t="s">
+        <v>724</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s005.1.un -2 s005.2.un -S s005.un.bt2.sam --no-unal --al-conc ./s005.zoox --un-conc trash/s005.junk</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>725</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>s006.1.un</v>
+      </c>
+      <c r="D6" t="s">
+        <v>725</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>s006.2.un</v>
+      </c>
+      <c r="H6" t="s">
+        <v>725</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s006.1.un -2 s006.2.un -S s006.un.bt2.sam --no-unal --al-conc ./s006.zoox --un-conc trash/s006.junk</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>726</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>s007.1.un</v>
+      </c>
+      <c r="D7" t="s">
+        <v>726</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>s007.2.un</v>
+      </c>
+      <c r="H7" t="s">
+        <v>726</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s007.1.un -2 s007.2.un -S s007.un.bt2.sam --no-unal --al-conc ./s007.zoox --un-conc trash/s007.junk</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>727</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>s008.1.un</v>
+      </c>
+      <c r="D8" t="s">
+        <v>727</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>s008.2.un</v>
+      </c>
+      <c r="H8" t="s">
+        <v>727</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s008.1.un -2 s008.2.un -S s008.un.bt2.sam --no-unal --al-conc ./s008.zoox --un-conc trash/s008.junk</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>728</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>s009.1.un</v>
+      </c>
+      <c r="D9" t="s">
+        <v>728</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>s009.2.un</v>
+      </c>
+      <c r="H9" t="s">
+        <v>728</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s009.1.un -2 s009.2.un -S s009.un.bt2.sam --no-unal --al-conc ./s009.zoox --un-conc trash/s009.junk</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>729</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>s010.1.un</v>
+      </c>
+      <c r="D10" t="s">
+        <v>729</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>s010.2.un</v>
+      </c>
+      <c r="H10" t="s">
+        <v>729</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s010.1.un -2 s010.2.un -S s010.un.bt2.sam --no-unal --al-conc ./s010.zoox --un-conc trash/s010.junk</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>730</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>s011.1.un</v>
+      </c>
+      <c r="D11" t="s">
+        <v>730</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>s011.2.un</v>
+      </c>
+      <c r="H11" t="s">
+        <v>730</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s011.1.un -2 s011.2.un -S s011.un.bt2.sam --no-unal --al-conc ./s011.zoox --un-conc trash/s011.junk</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>731</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>s012.1.un</v>
+      </c>
+      <c r="D12" t="s">
+        <v>731</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>s012.2.un</v>
+      </c>
+      <c r="H12" t="s">
+        <v>731</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s012.1.un -2 s012.2.un -S s012.un.bt2.sam --no-unal --al-conc ./s012.zoox --un-conc trash/s012.junk</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>732</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>s013.1.un</v>
+      </c>
+      <c r="D13" t="s">
+        <v>732</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>s013.2.un</v>
+      </c>
+      <c r="H13" t="s">
+        <v>732</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s013.1.un -2 s013.2.un -S s013.un.bt2.sam --no-unal --al-conc ./s013.zoox --un-conc trash/s013.junk</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>733</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>s014.1.un</v>
+      </c>
+      <c r="D14" t="s">
+        <v>733</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>s014.2.un</v>
+      </c>
+      <c r="H14" t="s">
+        <v>733</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s014.1.un -2 s014.2.un -S s014.un.bt2.sam --no-unal --al-conc ./s014.zoox --un-conc trash/s014.junk</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>734</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>s015.1.un</v>
+      </c>
+      <c r="D15" t="s">
+        <v>734</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>s015.2.un</v>
+      </c>
+      <c r="H15" t="s">
+        <v>734</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s015.1.un -2 s015.2.un -S s015.un.bt2.sam --no-unal --al-conc ./s015.zoox --un-conc trash/s015.junk</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>735</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>s016.1.un</v>
+      </c>
+      <c r="D16" t="s">
+        <v>735</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>s016.2.un</v>
+      </c>
+      <c r="H16" t="s">
+        <v>735</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s016.1.un -2 s016.2.un -S s016.un.bt2.sam --no-unal --al-conc ./s016.zoox --un-conc trash/s016.junk</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>736</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>s017.1.un</v>
+      </c>
+      <c r="D17" t="s">
+        <v>736</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>s017.2.un</v>
+      </c>
+      <c r="H17" t="s">
+        <v>736</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s017.1.un -2 s017.2.un -S s017.un.bt2.sam --no-unal --al-conc ./s017.zoox --un-conc trash/s017.junk</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>737</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>s018.1.un</v>
+      </c>
+      <c r="D18" t="s">
+        <v>737</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>s018.2.un</v>
+      </c>
+      <c r="H18" t="s">
+        <v>737</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s018.1.un -2 s018.2.un -S s018.un.bt2.sam --no-unal --al-conc ./s018.zoox --un-conc trash/s018.junk</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>738</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>s019.1.un</v>
+      </c>
+      <c r="D19" t="s">
+        <v>738</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>s019.2.un</v>
+      </c>
+      <c r="H19" t="s">
+        <v>738</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s019.1.un -2 s019.2.un -S s019.un.bt2.sam --no-unal --al-conc ./s019.zoox --un-conc trash/s019.junk</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>739</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>s020.1.un</v>
+      </c>
+      <c r="D20" t="s">
+        <v>739</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>s020.2.un</v>
+      </c>
+      <c r="H20" t="s">
+        <v>739</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s020.1.un -2 s020.2.un -S s020.un.bt2.sam --no-unal --al-conc ./s020.zoox --un-conc trash/s020.junk</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>740</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>s021.1.un</v>
+      </c>
+      <c r="D21" t="s">
+        <v>740</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>s021.2.un</v>
+      </c>
+      <c r="H21" t="s">
+        <v>740</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s021.1.un -2 s021.2.un -S s021.un.bt2.sam --no-unal --al-conc ./s021.zoox --un-conc trash/s021.junk</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>741</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>s022.1.un</v>
+      </c>
+      <c r="D22" t="s">
+        <v>741</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v>s022.2.un</v>
+      </c>
+      <c r="H22" t="s">
+        <v>741</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s022.1.un -2 s022.2.un -S s022.un.bt2.sam --no-unal --al-conc ./s022.zoox --un-conc trash/s022.junk</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>742</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>s023.1.un</v>
+      </c>
+      <c r="D23" t="s">
+        <v>742</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>s023.2.un</v>
+      </c>
+      <c r="H23" t="s">
+        <v>742</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s023.1.un -2 s023.2.un -S s023.un.bt2.sam --no-unal --al-conc ./s023.zoox --un-conc trash/s023.junk</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>743</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>s024.1.un</v>
+      </c>
+      <c r="D24" t="s">
+        <v>743</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v>s024.2.un</v>
+      </c>
+      <c r="H24" t="s">
+        <v>743</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s024.1.un -2 s024.2.un -S s024.un.bt2.sam --no-unal --al-conc ./s024.zoox --un-conc trash/s024.junk</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>744</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>s025.1.un</v>
+      </c>
+      <c r="D25" t="s">
+        <v>744</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v>s025.2.un</v>
+      </c>
+      <c r="H25" t="s">
+        <v>744</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s025.1.un -2 s025.2.un -S s025.un.bt2.sam --no-unal --al-conc ./s025.zoox --un-conc trash/s025.junk</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>745</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>s026.1.un</v>
+      </c>
+      <c r="D26" t="s">
+        <v>745</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v>s026.2.un</v>
+      </c>
+      <c r="H26" t="s">
+        <v>745</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s026.1.un -2 s026.2.un -S s026.un.bt2.sam --no-unal --al-conc ./s026.zoox --un-conc trash/s026.junk</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>746</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>s027.1.un</v>
+      </c>
+      <c r="D27" t="s">
+        <v>746</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v>s027.2.un</v>
+      </c>
+      <c r="H27" t="s">
+        <v>746</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s027.1.un -2 s027.2.un -S s027.un.bt2.sam --no-unal --al-conc ./s027.zoox --un-conc trash/s027.junk</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>747</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>s028.1.un</v>
+      </c>
+      <c r="D28" t="s">
+        <v>747</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v>s028.2.un</v>
+      </c>
+      <c r="H28" t="s">
+        <v>747</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s028.1.un -2 s028.2.un -S s028.un.bt2.sam --no-unal --al-conc ./s028.zoox --un-conc trash/s028.junk</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>748</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>s029.1.un</v>
+      </c>
+      <c r="D29" t="s">
+        <v>748</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v>s029.2.un</v>
+      </c>
+      <c r="H29" t="s">
+        <v>748</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s029.1.un -2 s029.2.un -S s029.un.bt2.sam --no-unal --al-conc ./s029.zoox --un-conc trash/s029.junk</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>749</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>s030.1.un</v>
+      </c>
+      <c r="D30" t="s">
+        <v>749</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="1"/>
+        <v>s030.2.un</v>
+      </c>
+      <c r="H30" t="s">
+        <v>749</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s030.1.un -2 s030.2.un -S s030.un.bt2.sam --no-unal --al-conc ./s030.zoox --un-conc trash/s030.junk</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>750</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>s031.1.un</v>
+      </c>
+      <c r="D31" t="s">
+        <v>750</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="1"/>
+        <v>s031.2.un</v>
+      </c>
+      <c r="H31" t="s">
+        <v>750</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s031.1.un -2 s031.2.un -S s031.un.bt2.sam --no-unal --al-conc ./s031.zoox --un-conc trash/s031.junk</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>751</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>s032.1.un</v>
+      </c>
+      <c r="D32" t="s">
+        <v>751</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="1"/>
+        <v>s032.2.un</v>
+      </c>
+      <c r="H32" t="s">
+        <v>751</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s032.1.un -2 s032.2.un -S s032.un.bt2.sam --no-unal --al-conc ./s032.zoox --un-conc trash/s032.junk</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>752</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>s033.1.un</v>
+      </c>
+      <c r="D33" t="s">
+        <v>752</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="1"/>
+        <v>s033.2.un</v>
+      </c>
+      <c r="H33" t="s">
+        <v>752</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s033.1.un -2 s033.2.un -S s033.un.bt2.sam --no-unal --al-conc ./s033.zoox --un-conc trash/s033.junk</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>753</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>s034.1.un</v>
+      </c>
+      <c r="D34" t="s">
+        <v>753</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="1"/>
+        <v>s034.2.un</v>
+      </c>
+      <c r="H34" t="s">
+        <v>753</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s034.1.un -2 s034.2.un -S s034.un.bt2.sam --no-unal --al-conc ./s034.zoox --un-conc trash/s034.junk</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>754</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>s035.1.un</v>
+      </c>
+      <c r="D35" t="s">
+        <v>754</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="1"/>
+        <v>s035.2.un</v>
+      </c>
+      <c r="H35" t="s">
+        <v>754</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s035.1.un -2 s035.2.un -S s035.un.bt2.sam --no-unal --al-conc ./s035.zoox --un-conc trash/s035.junk</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>755</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>s036.1.un</v>
+      </c>
+      <c r="D36" t="s">
+        <v>755</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="1"/>
+        <v>s036.2.un</v>
+      </c>
+      <c r="H36" t="s">
+        <v>755</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s036.1.un -2 s036.2.un -S s036.un.bt2.sam --no-unal --al-conc ./s036.zoox --un-conc trash/s036.junk</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>756</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>s037.1.un</v>
+      </c>
+      <c r="D37" t="s">
+        <v>756</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="1"/>
+        <v>s037.2.un</v>
+      </c>
+      <c r="H37" t="s">
+        <v>756</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s037.1.un -2 s037.2.un -S s037.un.bt2.sam --no-unal --al-conc ./s037.zoox --un-conc trash/s037.junk</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>757</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>s038.1.un</v>
+      </c>
+      <c r="D38" t="s">
+        <v>757</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="1"/>
+        <v>s038.2.un</v>
+      </c>
+      <c r="H38" t="s">
+        <v>757</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s038.1.un -2 s038.2.un -S s038.un.bt2.sam --no-unal --al-conc ./s038.zoox --un-conc trash/s038.junk</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>758</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>s039.1.un</v>
+      </c>
+      <c r="D39" t="s">
+        <v>758</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="1"/>
+        <v>s039.2.un</v>
+      </c>
+      <c r="H39" t="s">
+        <v>758</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s039.1.un -2 s039.2.un -S s039.un.bt2.sam --no-unal --al-conc ./s039.zoox --un-conc trash/s039.junk</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>759</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>s040.1.un</v>
+      </c>
+      <c r="D40" t="s">
+        <v>759</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="1"/>
+        <v>s040.2.un</v>
+      </c>
+      <c r="H40" t="s">
+        <v>759</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s040.1.un -2 s040.2.un -S s040.un.bt2.sam --no-unal --al-conc ./s040.zoox --un-conc trash/s040.junk</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>760</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>s041.1.un</v>
+      </c>
+      <c r="D41" t="s">
+        <v>760</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="1"/>
+        <v>s041.2.un</v>
+      </c>
+      <c r="H41" t="s">
+        <v>760</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s041.1.un -2 s041.2.un -S s041.un.bt2.sam --no-unal --al-conc ./s041.zoox --un-conc trash/s041.junk</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>761</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>s042.1.un</v>
+      </c>
+      <c r="D42" t="s">
+        <v>761</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="1"/>
+        <v>s042.2.un</v>
+      </c>
+      <c r="H42" t="s">
+        <v>761</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s042.1.un -2 s042.2.un -S s042.un.bt2.sam --no-unal --al-conc ./s042.zoox --un-conc trash/s042.junk</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>762</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>s043.1.un</v>
+      </c>
+      <c r="D43" t="s">
+        <v>762</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="1"/>
+        <v>s043.2.un</v>
+      </c>
+      <c r="H43" t="s">
+        <v>762</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s043.1.un -2 s043.2.un -S s043.un.bt2.sam --no-unal --al-conc ./s043.zoox --un-conc trash/s043.junk</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>763</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>s044.1.un</v>
+      </c>
+      <c r="D44" t="s">
+        <v>763</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="1"/>
+        <v>s044.2.un</v>
+      </c>
+      <c r="H44" t="s">
+        <v>763</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s044.1.un -2 s044.2.un -S s044.un.bt2.sam --no-unal --al-conc ./s044.zoox --un-conc trash/s044.junk</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>764</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>s045.1.un</v>
+      </c>
+      <c r="D45" t="s">
+        <v>764</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="1"/>
+        <v>s045.2.un</v>
+      </c>
+      <c r="H45" t="s">
+        <v>764</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s045.1.un -2 s045.2.un -S s045.un.bt2.sam --no-unal --al-conc ./s045.zoox --un-conc trash/s045.junk</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>765</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>s046.1.un</v>
+      </c>
+      <c r="D46" t="s">
+        <v>765</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="1"/>
+        <v>s046.2.un</v>
+      </c>
+      <c r="H46" t="s">
+        <v>765</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s046.1.un -2 s046.2.un -S s046.un.bt2.sam --no-unal --al-conc ./s046.zoox --un-conc trash/s046.junk</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>766</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>s047.1.un</v>
+      </c>
+      <c r="D47" t="s">
+        <v>766</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="1"/>
+        <v>s047.2.un</v>
+      </c>
+      <c r="H47" t="s">
+        <v>766</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s047.1.un -2 s047.2.un -S s047.un.bt2.sam --no-unal --al-conc ./s047.zoox --un-conc trash/s047.junk</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>767</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>s048.1.un</v>
+      </c>
+      <c r="D48" t="s">
+        <v>767</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="1"/>
+        <v>s048.2.un</v>
+      </c>
+      <c r="H48" t="s">
+        <v>767</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s048.1.un -2 s048.2.un -S s048.un.bt2.sam --no-unal --al-conc ./s048.zoox --un-conc trash/s048.junk</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>768</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>s049.1.un</v>
+      </c>
+      <c r="D49" t="s">
+        <v>768</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="1"/>
+        <v>s049.2.un</v>
+      </c>
+      <c r="H49" t="s">
+        <v>768</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s049.1.un -2 s049.2.un -S s049.un.bt2.sam --no-unal --al-conc ./s049.zoox --un-conc trash/s049.junk</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>769</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>s050.1.un</v>
+      </c>
+      <c r="D50" t="s">
+        <v>769</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="1"/>
+        <v>s050.2.un</v>
+      </c>
+      <c r="H50" t="s">
+        <v>769</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s050.1.un -2 s050.2.un -S s050.un.bt2.sam --no-unal --al-conc ./s050.zoox --un-conc trash/s050.junk</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>770</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>s051.1.un</v>
+      </c>
+      <c r="D51" t="s">
+        <v>770</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="1"/>
+        <v>s051.2.un</v>
+      </c>
+      <c r="H51" t="s">
+        <v>770</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s051.1.un -2 s051.2.un -S s051.un.bt2.sam --no-unal --al-conc ./s051.zoox --un-conc trash/s051.junk</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>771</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>s052.1.un</v>
+      </c>
+      <c r="D52" t="s">
+        <v>771</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="1"/>
+        <v>s052.2.un</v>
+      </c>
+      <c r="H52" t="s">
+        <v>771</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s052.1.un -2 s052.2.un -S s052.un.bt2.sam --no-unal --al-conc ./s052.zoox --un-conc trash/s052.junk</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>772</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>s053.1.un</v>
+      </c>
+      <c r="D53" t="s">
+        <v>772</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="1"/>
+        <v>s053.2.un</v>
+      </c>
+      <c r="H53" t="s">
+        <v>772</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s053.1.un -2 s053.2.un -S s053.un.bt2.sam --no-unal --al-conc ./s053.zoox --un-conc trash/s053.junk</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>773</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>s054.1.un</v>
+      </c>
+      <c r="D54" t="s">
+        <v>773</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="1"/>
+        <v>s054.2.un</v>
+      </c>
+      <c r="H54" t="s">
+        <v>773</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s054.1.un -2 s054.2.un -S s054.un.bt2.sam --no-unal --al-conc ./s054.zoox --un-conc trash/s054.junk</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>774</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>s055.1.un</v>
+      </c>
+      <c r="D55" t="s">
+        <v>774</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="1"/>
+        <v>s055.2.un</v>
+      </c>
+      <c r="H55" t="s">
+        <v>774</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s055.1.un -2 s055.2.un -S s055.un.bt2.sam --no-unal --al-conc ./s055.zoox --un-conc trash/s055.junk</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>775</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>s056.1.un</v>
+      </c>
+      <c r="D56" t="s">
+        <v>775</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="1"/>
+        <v>s056.2.un</v>
+      </c>
+      <c r="H56" t="s">
+        <v>775</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s056.1.un -2 s056.2.un -S s056.un.bt2.sam --no-unal --al-conc ./s056.zoox --un-conc trash/s056.junk</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>776</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>s057.1.un</v>
+      </c>
+      <c r="D57" t="s">
+        <v>776</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="1"/>
+        <v>s057.2.un</v>
+      </c>
+      <c r="H57" t="s">
+        <v>776</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s057.1.un -2 s057.2.un -S s057.un.bt2.sam --no-unal --al-conc ./s057.zoox --un-conc trash/s057.junk</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>777</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>s058.1.un</v>
+      </c>
+      <c r="D58" t="s">
+        <v>777</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="1"/>
+        <v>s058.2.un</v>
+      </c>
+      <c r="H58" t="s">
+        <v>777</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s058.1.un -2 s058.2.un -S s058.un.bt2.sam --no-unal --al-conc ./s058.zoox --un-conc trash/s058.junk</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>778</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>s059.1.un</v>
+      </c>
+      <c r="D59" t="s">
+        <v>778</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="1"/>
+        <v>s059.2.un</v>
+      </c>
+      <c r="H59" t="s">
+        <v>778</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s059.1.un -2 s059.2.un -S s059.un.bt2.sam --no-unal --al-conc ./s059.zoox --un-conc trash/s059.junk</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>779</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>s060.1.un</v>
+      </c>
+      <c r="D60" t="s">
+        <v>779</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="1"/>
+        <v>s060.2.un</v>
+      </c>
+      <c r="H60" t="s">
+        <v>779</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s060.1.un -2 s060.2.un -S s060.un.bt2.sam --no-unal --al-conc ./s060.zoox --un-conc trash/s060.junk</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>780</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>s061.1.un</v>
+      </c>
+      <c r="D61" t="s">
+        <v>780</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="1"/>
+        <v>s061.2.un</v>
+      </c>
+      <c r="H61" t="s">
+        <v>780</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s061.1.un -2 s061.2.un -S s061.un.bt2.sam --no-unal --al-conc ./s061.zoox --un-conc trash/s061.junk</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>781</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>s062.1.un</v>
+      </c>
+      <c r="D62" t="s">
+        <v>781</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="1"/>
+        <v>s062.2.un</v>
+      </c>
+      <c r="H62" t="s">
+        <v>781</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s062.1.un -2 s062.2.un -S s062.un.bt2.sam --no-unal --al-conc ./s062.zoox --un-conc trash/s062.junk</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>782</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>s063.1.un</v>
+      </c>
+      <c r="D63" t="s">
+        <v>782</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="1"/>
+        <v>s063.2.un</v>
+      </c>
+      <c r="H63" t="s">
+        <v>782</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s063.1.un -2 s063.2.un -S s063.un.bt2.sam --no-unal --al-conc ./s063.zoox --un-conc trash/s063.junk</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>783</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>s064.1.un</v>
+      </c>
+      <c r="D64" t="s">
+        <v>783</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="1"/>
+        <v>s064.2.un</v>
+      </c>
+      <c r="H64" t="s">
+        <v>783</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s064.1.un -2 s064.2.un -S s064.un.bt2.sam --no-unal --al-conc ./s064.zoox --un-conc trash/s064.junk</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>784</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>s065.1.un</v>
+      </c>
+      <c r="D65" t="s">
+        <v>784</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="1"/>
+        <v>s065.2.un</v>
+      </c>
+      <c r="H65" t="s">
+        <v>784</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="2"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s065.1.un -2 s065.2.un -S s065.un.bt2.sam --no-unal --al-conc ./s065.zoox --un-conc trash/s065.junk</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>785</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" ref="B66:B129" si="3">A66&amp;".1.un"</f>
+        <v>s066.1.un</v>
+      </c>
+      <c r="D66" t="s">
+        <v>785</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" ref="E66:E129" si="4">D66&amp;".2.un"</f>
+        <v>s066.2.un</v>
+      </c>
+      <c r="H66" t="s">
+        <v>785</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" ref="J66:J129" si="5">"bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 "&amp;B66&amp;" -2 "&amp;E66&amp;" -S "&amp;H66&amp;".un.bt2.sam --no-unal --al-conc ./"&amp;H66&amp;".zoox --un-conc trash/"&amp;H66&amp;".junk"</f>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s066.1.un -2 s066.2.un -S s066.un.bt2.sam --no-unal --al-conc ./s066.zoox --un-conc trash/s066.junk</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>786</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="3"/>
+        <v>s067.1.un</v>
+      </c>
+      <c r="D67" t="s">
+        <v>786</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="4"/>
+        <v>s067.2.un</v>
+      </c>
+      <c r="H67" t="s">
+        <v>786</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s067.1.un -2 s067.2.un -S s067.un.bt2.sam --no-unal --al-conc ./s067.zoox --un-conc trash/s067.junk</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>787</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="3"/>
+        <v>s068.1.un</v>
+      </c>
+      <c r="D68" t="s">
+        <v>787</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="4"/>
+        <v>s068.2.un</v>
+      </c>
+      <c r="H68" t="s">
+        <v>787</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s068.1.un -2 s068.2.un -S s068.un.bt2.sam --no-unal --al-conc ./s068.zoox --un-conc trash/s068.junk</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>788</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="3"/>
+        <v>s069.1.un</v>
+      </c>
+      <c r="D69" t="s">
+        <v>788</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="4"/>
+        <v>s069.2.un</v>
+      </c>
+      <c r="H69" t="s">
+        <v>788</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s069.1.un -2 s069.2.un -S s069.un.bt2.sam --no-unal --al-conc ./s069.zoox --un-conc trash/s069.junk</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>789</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="3"/>
+        <v>s070.1.un</v>
+      </c>
+      <c r="D70" t="s">
+        <v>789</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="4"/>
+        <v>s070.2.un</v>
+      </c>
+      <c r="H70" t="s">
+        <v>789</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s070.1.un -2 s070.2.un -S s070.un.bt2.sam --no-unal --al-conc ./s070.zoox --un-conc trash/s070.junk</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>790</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="3"/>
+        <v>s071.1.un</v>
+      </c>
+      <c r="D71" t="s">
+        <v>790</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="4"/>
+        <v>s071.2.un</v>
+      </c>
+      <c r="H71" t="s">
+        <v>790</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s071.1.un -2 s071.2.un -S s071.un.bt2.sam --no-unal --al-conc ./s071.zoox --un-conc trash/s071.junk</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>791</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="3"/>
+        <v>s072.1.un</v>
+      </c>
+      <c r="D72" t="s">
+        <v>791</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="4"/>
+        <v>s072.2.un</v>
+      </c>
+      <c r="H72" t="s">
+        <v>791</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s072.1.un -2 s072.2.un -S s072.un.bt2.sam --no-unal --al-conc ./s072.zoox --un-conc trash/s072.junk</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>792</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="3"/>
+        <v>s073.1.un</v>
+      </c>
+      <c r="D73" t="s">
+        <v>792</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="4"/>
+        <v>s073.2.un</v>
+      </c>
+      <c r="H73" t="s">
+        <v>792</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s073.1.un -2 s073.2.un -S s073.un.bt2.sam --no-unal --al-conc ./s073.zoox --un-conc trash/s073.junk</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>793</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="3"/>
+        <v>s074.1.un</v>
+      </c>
+      <c r="D74" t="s">
+        <v>793</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="4"/>
+        <v>s074.2.un</v>
+      </c>
+      <c r="H74" t="s">
+        <v>793</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s074.1.un -2 s074.2.un -S s074.un.bt2.sam --no-unal --al-conc ./s074.zoox --un-conc trash/s074.junk</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>794</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="3"/>
+        <v>s075.1.un</v>
+      </c>
+      <c r="D75" t="s">
+        <v>794</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="4"/>
+        <v>s075.2.un</v>
+      </c>
+      <c r="H75" t="s">
+        <v>794</v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s075.1.un -2 s075.2.un -S s075.un.bt2.sam --no-unal --al-conc ./s075.zoox --un-conc trash/s075.junk</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>795</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="3"/>
+        <v>s076.1.un</v>
+      </c>
+      <c r="D76" t="s">
+        <v>795</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="4"/>
+        <v>s076.2.un</v>
+      </c>
+      <c r="H76" t="s">
+        <v>795</v>
+      </c>
+      <c r="J76" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s076.1.un -2 s076.2.un -S s076.un.bt2.sam --no-unal --al-conc ./s076.zoox --un-conc trash/s076.junk</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>796</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="3"/>
+        <v>s077.1.un</v>
+      </c>
+      <c r="D77" t="s">
+        <v>796</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="4"/>
+        <v>s077.2.un</v>
+      </c>
+      <c r="H77" t="s">
+        <v>796</v>
+      </c>
+      <c r="J77" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s077.1.un -2 s077.2.un -S s077.un.bt2.sam --no-unal --al-conc ./s077.zoox --un-conc trash/s077.junk</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>797</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="3"/>
+        <v>s078.1.un</v>
+      </c>
+      <c r="D78" t="s">
+        <v>797</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="4"/>
+        <v>s078.2.un</v>
+      </c>
+      <c r="H78" t="s">
+        <v>797</v>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s078.1.un -2 s078.2.un -S s078.un.bt2.sam --no-unal --al-conc ./s078.zoox --un-conc trash/s078.junk</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>798</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="3"/>
+        <v>s079.1.un</v>
+      </c>
+      <c r="D79" t="s">
+        <v>798</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="4"/>
+        <v>s079.2.un</v>
+      </c>
+      <c r="H79" t="s">
+        <v>798</v>
+      </c>
+      <c r="J79" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s079.1.un -2 s079.2.un -S s079.un.bt2.sam --no-unal --al-conc ./s079.zoox --un-conc trash/s079.junk</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>799</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="3"/>
+        <v>s080.1.un</v>
+      </c>
+      <c r="D80" t="s">
+        <v>799</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="4"/>
+        <v>s080.2.un</v>
+      </c>
+      <c r="H80" t="s">
+        <v>799</v>
+      </c>
+      <c r="J80" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s080.1.un -2 s080.2.un -S s080.un.bt2.sam --no-unal --al-conc ./s080.zoox --un-conc trash/s080.junk</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>800</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="3"/>
+        <v>s081.1.un</v>
+      </c>
+      <c r="D81" t="s">
+        <v>800</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="4"/>
+        <v>s081.2.un</v>
+      </c>
+      <c r="H81" t="s">
+        <v>800</v>
+      </c>
+      <c r="J81" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s081.1.un -2 s081.2.un -S s081.un.bt2.sam --no-unal --al-conc ./s081.zoox --un-conc trash/s081.junk</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>801</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="3"/>
+        <v>s082.1.un</v>
+      </c>
+      <c r="D82" t="s">
+        <v>801</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="4"/>
+        <v>s082.2.un</v>
+      </c>
+      <c r="H82" t="s">
+        <v>801</v>
+      </c>
+      <c r="J82" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s082.1.un -2 s082.2.un -S s082.un.bt2.sam --no-unal --al-conc ./s082.zoox --un-conc trash/s082.junk</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>802</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="3"/>
+        <v>s083.1.un</v>
+      </c>
+      <c r="D83" t="s">
+        <v>802</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="4"/>
+        <v>s083.2.un</v>
+      </c>
+      <c r="H83" t="s">
+        <v>802</v>
+      </c>
+      <c r="J83" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s083.1.un -2 s083.2.un -S s083.un.bt2.sam --no-unal --al-conc ./s083.zoox --un-conc trash/s083.junk</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>803</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="3"/>
+        <v>s084.1.un</v>
+      </c>
+      <c r="D84" t="s">
+        <v>803</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="4"/>
+        <v>s084.2.un</v>
+      </c>
+      <c r="H84" t="s">
+        <v>803</v>
+      </c>
+      <c r="J84" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s084.1.un -2 s084.2.un -S s084.un.bt2.sam --no-unal --al-conc ./s084.zoox --un-conc trash/s084.junk</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>804</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="3"/>
+        <v>s085.1.un</v>
+      </c>
+      <c r="D85" t="s">
+        <v>804</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="4"/>
+        <v>s085.2.un</v>
+      </c>
+      <c r="H85" t="s">
+        <v>804</v>
+      </c>
+      <c r="J85" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s085.1.un -2 s085.2.un -S s085.un.bt2.sam --no-unal --al-conc ./s085.zoox --un-conc trash/s085.junk</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>805</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="3"/>
+        <v>s086.1.un</v>
+      </c>
+      <c r="D86" t="s">
+        <v>805</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="4"/>
+        <v>s086.2.un</v>
+      </c>
+      <c r="H86" t="s">
+        <v>805</v>
+      </c>
+      <c r="J86" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s086.1.un -2 s086.2.un -S s086.un.bt2.sam --no-unal --al-conc ./s086.zoox --un-conc trash/s086.junk</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>806</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="3"/>
+        <v>s087.1.un</v>
+      </c>
+      <c r="D87" t="s">
+        <v>806</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="4"/>
+        <v>s087.2.un</v>
+      </c>
+      <c r="H87" t="s">
+        <v>806</v>
+      </c>
+      <c r="J87" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s087.1.un -2 s087.2.un -S s087.un.bt2.sam --no-unal --al-conc ./s087.zoox --un-conc trash/s087.junk</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>807</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="3"/>
+        <v>s088.1.un</v>
+      </c>
+      <c r="D88" t="s">
+        <v>807</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="4"/>
+        <v>s088.2.un</v>
+      </c>
+      <c r="H88" t="s">
+        <v>807</v>
+      </c>
+      <c r="J88" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s088.1.un -2 s088.2.un -S s088.un.bt2.sam --no-unal --al-conc ./s088.zoox --un-conc trash/s088.junk</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>808</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="3"/>
+        <v>s089.1.un</v>
+      </c>
+      <c r="D89" t="s">
+        <v>808</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="4"/>
+        <v>s089.2.un</v>
+      </c>
+      <c r="H89" t="s">
+        <v>808</v>
+      </c>
+      <c r="J89" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s089.1.un -2 s089.2.un -S s089.un.bt2.sam --no-unal --al-conc ./s089.zoox --un-conc trash/s089.junk</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>809</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="3"/>
+        <v>s090.1.un</v>
+      </c>
+      <c r="D90" t="s">
+        <v>809</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="4"/>
+        <v>s090.2.un</v>
+      </c>
+      <c r="H90" t="s">
+        <v>809</v>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s090.1.un -2 s090.2.un -S s090.un.bt2.sam --no-unal --al-conc ./s090.zoox --un-conc trash/s090.junk</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>810</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="3"/>
+        <v>s091.1.un</v>
+      </c>
+      <c r="D91" t="s">
+        <v>810</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="4"/>
+        <v>s091.2.un</v>
+      </c>
+      <c r="H91" t="s">
+        <v>810</v>
+      </c>
+      <c r="J91" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s091.1.un -2 s091.2.un -S s091.un.bt2.sam --no-unal --al-conc ./s091.zoox --un-conc trash/s091.junk</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>811</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="3"/>
+        <v>s092.1.un</v>
+      </c>
+      <c r="D92" t="s">
+        <v>811</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="4"/>
+        <v>s092.2.un</v>
+      </c>
+      <c r="H92" t="s">
+        <v>811</v>
+      </c>
+      <c r="J92" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s092.1.un -2 s092.2.un -S s092.un.bt2.sam --no-unal --al-conc ./s092.zoox --un-conc trash/s092.junk</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>812</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="3"/>
+        <v>s093.1.un</v>
+      </c>
+      <c r="D93" t="s">
+        <v>812</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="4"/>
+        <v>s093.2.un</v>
+      </c>
+      <c r="H93" t="s">
+        <v>812</v>
+      </c>
+      <c r="J93" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s093.1.un -2 s093.2.un -S s093.un.bt2.sam --no-unal --al-conc ./s093.zoox --un-conc trash/s093.junk</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>813</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="3"/>
+        <v>s094.1.un</v>
+      </c>
+      <c r="D94" t="s">
+        <v>813</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="4"/>
+        <v>s094.2.un</v>
+      </c>
+      <c r="H94" t="s">
+        <v>813</v>
+      </c>
+      <c r="J94" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s094.1.un -2 s094.2.un -S s094.un.bt2.sam --no-unal --al-conc ./s094.zoox --un-conc trash/s094.junk</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>814</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="3"/>
+        <v>s095.1.un</v>
+      </c>
+      <c r="D95" t="s">
+        <v>814</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="4"/>
+        <v>s095.2.un</v>
+      </c>
+      <c r="H95" t="s">
+        <v>814</v>
+      </c>
+      <c r="J95" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s095.1.un -2 s095.2.un -S s095.un.bt2.sam --no-unal --al-conc ./s095.zoox --un-conc trash/s095.junk</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>815</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="3"/>
+        <v>s096.1.un</v>
+      </c>
+      <c r="D96" t="s">
+        <v>815</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="4"/>
+        <v>s096.2.un</v>
+      </c>
+      <c r="H96" t="s">
+        <v>815</v>
+      </c>
+      <c r="J96" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s096.1.un -2 s096.2.un -S s096.un.bt2.sam --no-unal --al-conc ./s096.zoox --un-conc trash/s096.junk</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>816</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="3"/>
+        <v>s097.1.un</v>
+      </c>
+      <c r="D97" t="s">
+        <v>816</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="4"/>
+        <v>s097.2.un</v>
+      </c>
+      <c r="H97" t="s">
+        <v>816</v>
+      </c>
+      <c r="J97" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s097.1.un -2 s097.2.un -S s097.un.bt2.sam --no-unal --al-conc ./s097.zoox --un-conc trash/s097.junk</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>817</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="3"/>
+        <v>s098.1.un</v>
+      </c>
+      <c r="D98" t="s">
+        <v>817</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="4"/>
+        <v>s098.2.un</v>
+      </c>
+      <c r="H98" t="s">
+        <v>817</v>
+      </c>
+      <c r="J98" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s098.1.un -2 s098.2.un -S s098.un.bt2.sam --no-unal --al-conc ./s098.zoox --un-conc trash/s098.junk</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>818</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="3"/>
+        <v>s099.1.un</v>
+      </c>
+      <c r="D99" t="s">
+        <v>818</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="4"/>
+        <v>s099.2.un</v>
+      </c>
+      <c r="H99" t="s">
+        <v>818</v>
+      </c>
+      <c r="J99" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s099.1.un -2 s099.2.un -S s099.un.bt2.sam --no-unal --al-conc ./s099.zoox --un-conc trash/s099.junk</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>819</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="3"/>
+        <v>s100.1.un</v>
+      </c>
+      <c r="D100" t="s">
+        <v>819</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="4"/>
+        <v>s100.2.un</v>
+      </c>
+      <c r="H100" t="s">
+        <v>819</v>
+      </c>
+      <c r="J100" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s100.1.un -2 s100.2.un -S s100.un.bt2.sam --no-unal --al-conc ./s100.zoox --un-conc trash/s100.junk</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>820</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="3"/>
+        <v>s101.1.un</v>
+      </c>
+      <c r="D101" t="s">
+        <v>820</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="4"/>
+        <v>s101.2.un</v>
+      </c>
+      <c r="H101" t="s">
+        <v>820</v>
+      </c>
+      <c r="J101" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s101.1.un -2 s101.2.un -S s101.un.bt2.sam --no-unal --al-conc ./s101.zoox --un-conc trash/s101.junk</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>821</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" si="3"/>
+        <v>s102.1.un</v>
+      </c>
+      <c r="D102" t="s">
+        <v>821</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="4"/>
+        <v>s102.2.un</v>
+      </c>
+      <c r="H102" t="s">
+        <v>821</v>
+      </c>
+      <c r="J102" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s102.1.un -2 s102.2.un -S s102.un.bt2.sam --no-unal --al-conc ./s102.zoox --un-conc trash/s102.junk</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>822</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" si="3"/>
+        <v>s103.1.un</v>
+      </c>
+      <c r="D103" t="s">
+        <v>822</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="4"/>
+        <v>s103.2.un</v>
+      </c>
+      <c r="H103" t="s">
+        <v>822</v>
+      </c>
+      <c r="J103" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s103.1.un -2 s103.2.un -S s103.un.bt2.sam --no-unal --al-conc ./s103.zoox --un-conc trash/s103.junk</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>823</v>
+      </c>
+      <c r="B104" t="str">
+        <f t="shared" si="3"/>
+        <v>s104.1.un</v>
+      </c>
+      <c r="D104" t="s">
+        <v>823</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="4"/>
+        <v>s104.2.un</v>
+      </c>
+      <c r="H104" t="s">
+        <v>823</v>
+      </c>
+      <c r="J104" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s104.1.un -2 s104.2.un -S s104.un.bt2.sam --no-unal --al-conc ./s104.zoox --un-conc trash/s104.junk</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>824</v>
+      </c>
+      <c r="B105" t="str">
+        <f t="shared" si="3"/>
+        <v>s105.1.un</v>
+      </c>
+      <c r="D105" t="s">
+        <v>824</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="4"/>
+        <v>s105.2.un</v>
+      </c>
+      <c r="H105" t="s">
+        <v>824</v>
+      </c>
+      <c r="J105" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s105.1.un -2 s105.2.un -S s105.un.bt2.sam --no-unal --al-conc ./s105.zoox --un-conc trash/s105.junk</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>825</v>
+      </c>
+      <c r="B106" t="str">
+        <f t="shared" si="3"/>
+        <v>s106.1.un</v>
+      </c>
+      <c r="D106" t="s">
+        <v>825</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="4"/>
+        <v>s106.2.un</v>
+      </c>
+      <c r="H106" t="s">
+        <v>825</v>
+      </c>
+      <c r="J106" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s106.1.un -2 s106.2.un -S s106.un.bt2.sam --no-unal --al-conc ./s106.zoox --un-conc trash/s106.junk</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>826</v>
+      </c>
+      <c r="B107" t="str">
+        <f t="shared" si="3"/>
+        <v>s107.1.un</v>
+      </c>
+      <c r="D107" t="s">
+        <v>826</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="4"/>
+        <v>s107.2.un</v>
+      </c>
+      <c r="H107" t="s">
+        <v>826</v>
+      </c>
+      <c r="J107" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s107.1.un -2 s107.2.un -S s107.un.bt2.sam --no-unal --al-conc ./s107.zoox --un-conc trash/s107.junk</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>827</v>
+      </c>
+      <c r="B108" t="str">
+        <f t="shared" si="3"/>
+        <v>s108.1.un</v>
+      </c>
+      <c r="D108" t="s">
+        <v>827</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="4"/>
+        <v>s108.2.un</v>
+      </c>
+      <c r="H108" t="s">
+        <v>827</v>
+      </c>
+      <c r="J108" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s108.1.un -2 s108.2.un -S s108.un.bt2.sam --no-unal --al-conc ./s108.zoox --un-conc trash/s108.junk</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>828</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="3"/>
+        <v>s109.1.un</v>
+      </c>
+      <c r="D109" t="s">
+        <v>828</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="4"/>
+        <v>s109.2.un</v>
+      </c>
+      <c r="H109" t="s">
+        <v>828</v>
+      </c>
+      <c r="J109" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s109.1.un -2 s109.2.un -S s109.un.bt2.sam --no-unal --al-conc ./s109.zoox --un-conc trash/s109.junk</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>829</v>
+      </c>
+      <c r="B110" t="str">
+        <f t="shared" si="3"/>
+        <v>s110.1.un</v>
+      </c>
+      <c r="D110" t="s">
+        <v>829</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="4"/>
+        <v>s110.2.un</v>
+      </c>
+      <c r="H110" t="s">
+        <v>829</v>
+      </c>
+      <c r="J110" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s110.1.un -2 s110.2.un -S s110.un.bt2.sam --no-unal --al-conc ./s110.zoox --un-conc trash/s110.junk</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>830</v>
+      </c>
+      <c r="B111" t="str">
+        <f t="shared" si="3"/>
+        <v>s111.1.un</v>
+      </c>
+      <c r="D111" t="s">
+        <v>830</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="4"/>
+        <v>s111.2.un</v>
+      </c>
+      <c r="H111" t="s">
+        <v>830</v>
+      </c>
+      <c r="J111" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s111.1.un -2 s111.2.un -S s111.un.bt2.sam --no-unal --al-conc ./s111.zoox --un-conc trash/s111.junk</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>831</v>
+      </c>
+      <c r="B112" t="str">
+        <f t="shared" si="3"/>
+        <v>s112.1.un</v>
+      </c>
+      <c r="D112" t="s">
+        <v>831</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="4"/>
+        <v>s112.2.un</v>
+      </c>
+      <c r="H112" t="s">
+        <v>831</v>
+      </c>
+      <c r="J112" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s112.1.un -2 s112.2.un -S s112.un.bt2.sam --no-unal --al-conc ./s112.zoox --un-conc trash/s112.junk</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>832</v>
+      </c>
+      <c r="B113" t="str">
+        <f t="shared" si="3"/>
+        <v>s113.1.un</v>
+      </c>
+      <c r="D113" t="s">
+        <v>832</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="4"/>
+        <v>s113.2.un</v>
+      </c>
+      <c r="H113" t="s">
+        <v>832</v>
+      </c>
+      <c r="J113" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s113.1.un -2 s113.2.un -S s113.un.bt2.sam --no-unal --al-conc ./s113.zoox --un-conc trash/s113.junk</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>833</v>
+      </c>
+      <c r="B114" t="str">
+        <f t="shared" si="3"/>
+        <v>s114.1.un</v>
+      </c>
+      <c r="D114" t="s">
+        <v>833</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" si="4"/>
+        <v>s114.2.un</v>
+      </c>
+      <c r="H114" t="s">
+        <v>833</v>
+      </c>
+      <c r="J114" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s114.1.un -2 s114.2.un -S s114.un.bt2.sam --no-unal --al-conc ./s114.zoox --un-conc trash/s114.junk</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>834</v>
+      </c>
+      <c r="B115" t="str">
+        <f t="shared" si="3"/>
+        <v>s115.1.un</v>
+      </c>
+      <c r="D115" t="s">
+        <v>834</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="4"/>
+        <v>s115.2.un</v>
+      </c>
+      <c r="H115" t="s">
+        <v>834</v>
+      </c>
+      <c r="J115" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s115.1.un -2 s115.2.un -S s115.un.bt2.sam --no-unal --al-conc ./s115.zoox --un-conc trash/s115.junk</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>835</v>
+      </c>
+      <c r="B116" t="str">
+        <f t="shared" si="3"/>
+        <v>s116.1.un</v>
+      </c>
+      <c r="D116" t="s">
+        <v>835</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="4"/>
+        <v>s116.2.un</v>
+      </c>
+      <c r="H116" t="s">
+        <v>835</v>
+      </c>
+      <c r="J116" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s116.1.un -2 s116.2.un -S s116.un.bt2.sam --no-unal --al-conc ./s116.zoox --un-conc trash/s116.junk</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>836</v>
+      </c>
+      <c r="B117" t="str">
+        <f t="shared" si="3"/>
+        <v>s117.1.un</v>
+      </c>
+      <c r="D117" t="s">
+        <v>836</v>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" si="4"/>
+        <v>s117.2.un</v>
+      </c>
+      <c r="H117" t="s">
+        <v>836</v>
+      </c>
+      <c r="J117" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s117.1.un -2 s117.2.un -S s117.un.bt2.sam --no-unal --al-conc ./s117.zoox --un-conc trash/s117.junk</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>837</v>
+      </c>
+      <c r="B118" t="str">
+        <f t="shared" si="3"/>
+        <v>s118.1.un</v>
+      </c>
+      <c r="D118" t="s">
+        <v>837</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="4"/>
+        <v>s118.2.un</v>
+      </c>
+      <c r="H118" t="s">
+        <v>837</v>
+      </c>
+      <c r="J118" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s118.1.un -2 s118.2.un -S s118.un.bt2.sam --no-unal --al-conc ./s118.zoox --un-conc trash/s118.junk</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>838</v>
+      </c>
+      <c r="B119" t="str">
+        <f t="shared" si="3"/>
+        <v>s119.1.un</v>
+      </c>
+      <c r="D119" t="s">
+        <v>838</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" si="4"/>
+        <v>s119.2.un</v>
+      </c>
+      <c r="H119" t="s">
+        <v>838</v>
+      </c>
+      <c r="J119" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s119.1.un -2 s119.2.un -S s119.un.bt2.sam --no-unal --al-conc ./s119.zoox --un-conc trash/s119.junk</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>839</v>
+      </c>
+      <c r="B120" t="str">
+        <f t="shared" si="3"/>
+        <v>s120.1.un</v>
+      </c>
+      <c r="D120" t="s">
+        <v>839</v>
+      </c>
+      <c r="E120" t="str">
+        <f t="shared" si="4"/>
+        <v>s120.2.un</v>
+      </c>
+      <c r="H120" t="s">
+        <v>839</v>
+      </c>
+      <c r="J120" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s120.1.un -2 s120.2.un -S s120.un.bt2.sam --no-unal --al-conc ./s120.zoox --un-conc trash/s120.junk</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>840</v>
+      </c>
+      <c r="B121" t="str">
+        <f t="shared" si="3"/>
+        <v>s121.1.un</v>
+      </c>
+      <c r="D121" t="s">
+        <v>840</v>
+      </c>
+      <c r="E121" t="str">
+        <f t="shared" si="4"/>
+        <v>s121.2.un</v>
+      </c>
+      <c r="H121" t="s">
+        <v>840</v>
+      </c>
+      <c r="J121" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s121.1.un -2 s121.2.un -S s121.un.bt2.sam --no-unal --al-conc ./s121.zoox --un-conc trash/s121.junk</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>841</v>
+      </c>
+      <c r="B122" t="str">
+        <f t="shared" si="3"/>
+        <v>s122.1.un</v>
+      </c>
+      <c r="D122" t="s">
+        <v>841</v>
+      </c>
+      <c r="E122" t="str">
+        <f t="shared" si="4"/>
+        <v>s122.2.un</v>
+      </c>
+      <c r="H122" t="s">
+        <v>841</v>
+      </c>
+      <c r="J122" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s122.1.un -2 s122.2.un -S s122.un.bt2.sam --no-unal --al-conc ./s122.zoox --un-conc trash/s122.junk</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>842</v>
+      </c>
+      <c r="B123" t="str">
+        <f t="shared" si="3"/>
+        <v>s123.1.un</v>
+      </c>
+      <c r="D123" t="s">
+        <v>842</v>
+      </c>
+      <c r="E123" t="str">
+        <f t="shared" si="4"/>
+        <v>s123.2.un</v>
+      </c>
+      <c r="H123" t="s">
+        <v>842</v>
+      </c>
+      <c r="J123" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s123.1.un -2 s123.2.un -S s123.un.bt2.sam --no-unal --al-conc ./s123.zoox --un-conc trash/s123.junk</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>843</v>
+      </c>
+      <c r="B124" t="str">
+        <f t="shared" si="3"/>
+        <v>s124.1.un</v>
+      </c>
+      <c r="D124" t="s">
+        <v>843</v>
+      </c>
+      <c r="E124" t="str">
+        <f t="shared" si="4"/>
+        <v>s124.2.un</v>
+      </c>
+      <c r="H124" t="s">
+        <v>843</v>
+      </c>
+      <c r="J124" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s124.1.un -2 s124.2.un -S s124.un.bt2.sam --no-unal --al-conc ./s124.zoox --un-conc trash/s124.junk</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>844</v>
+      </c>
+      <c r="B125" t="str">
+        <f t="shared" si="3"/>
+        <v>s125.1.un</v>
+      </c>
+      <c r="D125" t="s">
+        <v>844</v>
+      </c>
+      <c r="E125" t="str">
+        <f t="shared" si="4"/>
+        <v>s125.2.un</v>
+      </c>
+      <c r="H125" t="s">
+        <v>844</v>
+      </c>
+      <c r="J125" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s125.1.un -2 s125.2.un -S s125.un.bt2.sam --no-unal --al-conc ./s125.zoox --un-conc trash/s125.junk</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>845</v>
+      </c>
+      <c r="B126" t="str">
+        <f t="shared" si="3"/>
+        <v>s126.1.un</v>
+      </c>
+      <c r="D126" t="s">
+        <v>845</v>
+      </c>
+      <c r="E126" t="str">
+        <f t="shared" si="4"/>
+        <v>s126.2.un</v>
+      </c>
+      <c r="H126" t="s">
+        <v>845</v>
+      </c>
+      <c r="J126" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s126.1.un -2 s126.2.un -S s126.un.bt2.sam --no-unal --al-conc ./s126.zoox --un-conc trash/s126.junk</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>846</v>
+      </c>
+      <c r="B127" t="str">
+        <f t="shared" si="3"/>
+        <v>s127.1.un</v>
+      </c>
+      <c r="D127" t="s">
+        <v>846</v>
+      </c>
+      <c r="E127" t="str">
+        <f t="shared" si="4"/>
+        <v>s127.2.un</v>
+      </c>
+      <c r="H127" t="s">
+        <v>846</v>
+      </c>
+      <c r="J127" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s127.1.un -2 s127.2.un -S s127.un.bt2.sam --no-unal --al-conc ./s127.zoox --un-conc trash/s127.junk</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>847</v>
+      </c>
+      <c r="B128" t="str">
+        <f t="shared" si="3"/>
+        <v>s128.1.un</v>
+      </c>
+      <c r="D128" t="s">
+        <v>847</v>
+      </c>
+      <c r="E128" t="str">
+        <f t="shared" si="4"/>
+        <v>s128.2.un</v>
+      </c>
+      <c r="H128" t="s">
+        <v>847</v>
+      </c>
+      <c r="J128" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s128.1.un -2 s128.2.un -S s128.un.bt2.sam --no-unal --al-conc ./s128.zoox --un-conc trash/s128.junk</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>848</v>
+      </c>
+      <c r="B129" t="str">
+        <f t="shared" si="3"/>
+        <v>s129.1.un</v>
+      </c>
+      <c r="D129" t="s">
+        <v>848</v>
+      </c>
+      <c r="E129" t="str">
+        <f t="shared" si="4"/>
+        <v>s129.2.un</v>
+      </c>
+      <c r="H129" t="s">
+        <v>848</v>
+      </c>
+      <c r="J129" t="str">
+        <f t="shared" si="5"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s129.1.un -2 s129.2.un -S s129.un.bt2.sam --no-unal --al-conc ./s129.zoox --un-conc trash/s129.junk</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>849</v>
+      </c>
+      <c r="B130" t="str">
+        <f t="shared" ref="B130:B180" si="6">A130&amp;".1.un"</f>
+        <v>s130.1.un</v>
+      </c>
+      <c r="D130" t="s">
+        <v>849</v>
+      </c>
+      <c r="E130" t="str">
+        <f t="shared" ref="E130:E180" si="7">D130&amp;".2.un"</f>
+        <v>s130.2.un</v>
+      </c>
+      <c r="H130" t="s">
+        <v>849</v>
+      </c>
+      <c r="J130" t="str">
+        <f t="shared" ref="J130:J180" si="8">"bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 "&amp;B130&amp;" -2 "&amp;E130&amp;" -S "&amp;H130&amp;".un.bt2.sam --no-unal --al-conc ./"&amp;H130&amp;".zoox --un-conc trash/"&amp;H130&amp;".junk"</f>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s130.1.un -2 s130.2.un -S s130.un.bt2.sam --no-unal --al-conc ./s130.zoox --un-conc trash/s130.junk</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>850</v>
+      </c>
+      <c r="B131" t="str">
+        <f t="shared" si="6"/>
+        <v>s131.1.un</v>
+      </c>
+      <c r="D131" t="s">
+        <v>850</v>
+      </c>
+      <c r="E131" t="str">
+        <f t="shared" si="7"/>
+        <v>s131.2.un</v>
+      </c>
+      <c r="H131" t="s">
+        <v>850</v>
+      </c>
+      <c r="J131" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s131.1.un -2 s131.2.un -S s131.un.bt2.sam --no-unal --al-conc ./s131.zoox --un-conc trash/s131.junk</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>851</v>
+      </c>
+      <c r="B132" t="str">
+        <f t="shared" si="6"/>
+        <v>s132.1.un</v>
+      </c>
+      <c r="D132" t="s">
+        <v>851</v>
+      </c>
+      <c r="E132" t="str">
+        <f t="shared" si="7"/>
+        <v>s132.2.un</v>
+      </c>
+      <c r="H132" t="s">
+        <v>851</v>
+      </c>
+      <c r="J132" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s132.1.un -2 s132.2.un -S s132.un.bt2.sam --no-unal --al-conc ./s132.zoox --un-conc trash/s132.junk</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>852</v>
+      </c>
+      <c r="B133" t="str">
+        <f t="shared" si="6"/>
+        <v>s133.1.un</v>
+      </c>
+      <c r="D133" t="s">
+        <v>852</v>
+      </c>
+      <c r="E133" t="str">
+        <f t="shared" si="7"/>
+        <v>s133.2.un</v>
+      </c>
+      <c r="H133" t="s">
+        <v>852</v>
+      </c>
+      <c r="J133" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s133.1.un -2 s133.2.un -S s133.un.bt2.sam --no-unal --al-conc ./s133.zoox --un-conc trash/s133.junk</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>853</v>
+      </c>
+      <c r="B134" t="str">
+        <f t="shared" si="6"/>
+        <v>s134.1.un</v>
+      </c>
+      <c r="D134" t="s">
+        <v>853</v>
+      </c>
+      <c r="E134" t="str">
+        <f t="shared" si="7"/>
+        <v>s134.2.un</v>
+      </c>
+      <c r="H134" t="s">
+        <v>853</v>
+      </c>
+      <c r="J134" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s134.1.un -2 s134.2.un -S s134.un.bt2.sam --no-unal --al-conc ./s134.zoox --un-conc trash/s134.junk</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>854</v>
+      </c>
+      <c r="B135" t="str">
+        <f t="shared" si="6"/>
+        <v>s135.1.un</v>
+      </c>
+      <c r="D135" t="s">
+        <v>854</v>
+      </c>
+      <c r="E135" t="str">
+        <f t="shared" si="7"/>
+        <v>s135.2.un</v>
+      </c>
+      <c r="H135" t="s">
+        <v>854</v>
+      </c>
+      <c r="J135" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s135.1.un -2 s135.2.un -S s135.un.bt2.sam --no-unal --al-conc ./s135.zoox --un-conc trash/s135.junk</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>855</v>
+      </c>
+      <c r="B136" t="str">
+        <f t="shared" si="6"/>
+        <v>s136.1.un</v>
+      </c>
+      <c r="D136" t="s">
+        <v>855</v>
+      </c>
+      <c r="E136" t="str">
+        <f t="shared" si="7"/>
+        <v>s136.2.un</v>
+      </c>
+      <c r="H136" t="s">
+        <v>855</v>
+      </c>
+      <c r="J136" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s136.1.un -2 s136.2.un -S s136.un.bt2.sam --no-unal --al-conc ./s136.zoox --un-conc trash/s136.junk</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>856</v>
+      </c>
+      <c r="B137" t="str">
+        <f t="shared" si="6"/>
+        <v>s137.1.un</v>
+      </c>
+      <c r="D137" t="s">
+        <v>856</v>
+      </c>
+      <c r="E137" t="str">
+        <f t="shared" si="7"/>
+        <v>s137.2.un</v>
+      </c>
+      <c r="H137" t="s">
+        <v>856</v>
+      </c>
+      <c r="J137" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s137.1.un -2 s137.2.un -S s137.un.bt2.sam --no-unal --al-conc ./s137.zoox --un-conc trash/s137.junk</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>857</v>
+      </c>
+      <c r="B138" t="str">
+        <f t="shared" si="6"/>
+        <v>s138.1.un</v>
+      </c>
+      <c r="D138" t="s">
+        <v>857</v>
+      </c>
+      <c r="E138" t="str">
+        <f t="shared" si="7"/>
+        <v>s138.2.un</v>
+      </c>
+      <c r="H138" t="s">
+        <v>857</v>
+      </c>
+      <c r="J138" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s138.1.un -2 s138.2.un -S s138.un.bt2.sam --no-unal --al-conc ./s138.zoox --un-conc trash/s138.junk</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>858</v>
+      </c>
+      <c r="B139" t="str">
+        <f t="shared" si="6"/>
+        <v>s139.1.un</v>
+      </c>
+      <c r="D139" t="s">
+        <v>858</v>
+      </c>
+      <c r="E139" t="str">
+        <f t="shared" si="7"/>
+        <v>s139.2.un</v>
+      </c>
+      <c r="H139" t="s">
+        <v>858</v>
+      </c>
+      <c r="J139" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s139.1.un -2 s139.2.un -S s139.un.bt2.sam --no-unal --al-conc ./s139.zoox --un-conc trash/s139.junk</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>859</v>
+      </c>
+      <c r="B140" t="str">
+        <f t="shared" si="6"/>
+        <v>s140.1.un</v>
+      </c>
+      <c r="D140" t="s">
+        <v>859</v>
+      </c>
+      <c r="E140" t="str">
+        <f t="shared" si="7"/>
+        <v>s140.2.un</v>
+      </c>
+      <c r="H140" t="s">
+        <v>859</v>
+      </c>
+      <c r="J140" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s140.1.un -2 s140.2.un -S s140.un.bt2.sam --no-unal --al-conc ./s140.zoox --un-conc trash/s140.junk</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>860</v>
+      </c>
+      <c r="B141" t="str">
+        <f t="shared" si="6"/>
+        <v>s141.1.un</v>
+      </c>
+      <c r="D141" t="s">
+        <v>860</v>
+      </c>
+      <c r="E141" t="str">
+        <f t="shared" si="7"/>
+        <v>s141.2.un</v>
+      </c>
+      <c r="H141" t="s">
+        <v>860</v>
+      </c>
+      <c r="J141" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s141.1.un -2 s141.2.un -S s141.un.bt2.sam --no-unal --al-conc ./s141.zoox --un-conc trash/s141.junk</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>861</v>
+      </c>
+      <c r="B142" t="str">
+        <f t="shared" si="6"/>
+        <v>s142.1.un</v>
+      </c>
+      <c r="D142" t="s">
+        <v>861</v>
+      </c>
+      <c r="E142" t="str">
+        <f t="shared" si="7"/>
+        <v>s142.2.un</v>
+      </c>
+      <c r="H142" t="s">
+        <v>861</v>
+      </c>
+      <c r="J142" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s142.1.un -2 s142.2.un -S s142.un.bt2.sam --no-unal --al-conc ./s142.zoox --un-conc trash/s142.junk</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>862</v>
+      </c>
+      <c r="B143" t="str">
+        <f t="shared" si="6"/>
+        <v>s143.1.un</v>
+      </c>
+      <c r="D143" t="s">
+        <v>862</v>
+      </c>
+      <c r="E143" t="str">
+        <f t="shared" si="7"/>
+        <v>s143.2.un</v>
+      </c>
+      <c r="H143" t="s">
+        <v>862</v>
+      </c>
+      <c r="J143" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s143.1.un -2 s143.2.un -S s143.un.bt2.sam --no-unal --al-conc ./s143.zoox --un-conc trash/s143.junk</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>863</v>
+      </c>
+      <c r="B144" t="str">
+        <f t="shared" si="6"/>
+        <v>s144.1.un</v>
+      </c>
+      <c r="D144" t="s">
+        <v>863</v>
+      </c>
+      <c r="E144" t="str">
+        <f t="shared" si="7"/>
+        <v>s144.2.un</v>
+      </c>
+      <c r="H144" t="s">
+        <v>863</v>
+      </c>
+      <c r="J144" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s144.1.un -2 s144.2.un -S s144.un.bt2.sam --no-unal --al-conc ./s144.zoox --un-conc trash/s144.junk</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>864</v>
+      </c>
+      <c r="B145" t="str">
+        <f t="shared" si="6"/>
+        <v>s145.1.un</v>
+      </c>
+      <c r="D145" t="s">
+        <v>864</v>
+      </c>
+      <c r="E145" t="str">
+        <f t="shared" si="7"/>
+        <v>s145.2.un</v>
+      </c>
+      <c r="H145" t="s">
+        <v>864</v>
+      </c>
+      <c r="J145" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s145.1.un -2 s145.2.un -S s145.un.bt2.sam --no-unal --al-conc ./s145.zoox --un-conc trash/s145.junk</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>865</v>
+      </c>
+      <c r="B146" t="str">
+        <f t="shared" si="6"/>
+        <v>s146.1.un</v>
+      </c>
+      <c r="D146" t="s">
+        <v>865</v>
+      </c>
+      <c r="E146" t="str">
+        <f t="shared" si="7"/>
+        <v>s146.2.un</v>
+      </c>
+      <c r="H146" t="s">
+        <v>865</v>
+      </c>
+      <c r="J146" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s146.1.un -2 s146.2.un -S s146.un.bt2.sam --no-unal --al-conc ./s146.zoox --un-conc trash/s146.junk</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>866</v>
+      </c>
+      <c r="B147" t="str">
+        <f t="shared" si="6"/>
+        <v>s147.1.un</v>
+      </c>
+      <c r="D147" t="s">
+        <v>866</v>
+      </c>
+      <c r="E147" t="str">
+        <f t="shared" si="7"/>
+        <v>s147.2.un</v>
+      </c>
+      <c r="H147" t="s">
+        <v>866</v>
+      </c>
+      <c r="J147" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s147.1.un -2 s147.2.un -S s147.un.bt2.sam --no-unal --al-conc ./s147.zoox --un-conc trash/s147.junk</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>867</v>
+      </c>
+      <c r="B148" t="str">
+        <f t="shared" si="6"/>
+        <v>s148.1.un</v>
+      </c>
+      <c r="D148" t="s">
+        <v>867</v>
+      </c>
+      <c r="E148" t="str">
+        <f t="shared" si="7"/>
+        <v>s148.2.un</v>
+      </c>
+      <c r="H148" t="s">
+        <v>867</v>
+      </c>
+      <c r="J148" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s148.1.un -2 s148.2.un -S s148.un.bt2.sam --no-unal --al-conc ./s148.zoox --un-conc trash/s148.junk</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>868</v>
+      </c>
+      <c r="B149" t="str">
+        <f t="shared" si="6"/>
+        <v>s149.1.un</v>
+      </c>
+      <c r="D149" t="s">
+        <v>868</v>
+      </c>
+      <c r="E149" t="str">
+        <f t="shared" si="7"/>
+        <v>s149.2.un</v>
+      </c>
+      <c r="H149" t="s">
+        <v>868</v>
+      </c>
+      <c r="J149" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s149.1.un -2 s149.2.un -S s149.un.bt2.sam --no-unal --al-conc ./s149.zoox --un-conc trash/s149.junk</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>869</v>
+      </c>
+      <c r="B150" t="str">
+        <f t="shared" si="6"/>
+        <v>s150.1.un</v>
+      </c>
+      <c r="D150" t="s">
+        <v>869</v>
+      </c>
+      <c r="E150" t="str">
+        <f t="shared" si="7"/>
+        <v>s150.2.un</v>
+      </c>
+      <c r="H150" t="s">
+        <v>869</v>
+      </c>
+      <c r="J150" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s150.1.un -2 s150.2.un -S s150.un.bt2.sam --no-unal --al-conc ./s150.zoox --un-conc trash/s150.junk</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>870</v>
+      </c>
+      <c r="B151" t="str">
+        <f t="shared" si="6"/>
+        <v>s151.1.un</v>
+      </c>
+      <c r="D151" t="s">
+        <v>870</v>
+      </c>
+      <c r="E151" t="str">
+        <f t="shared" si="7"/>
+        <v>s151.2.un</v>
+      </c>
+      <c r="H151" t="s">
+        <v>870</v>
+      </c>
+      <c r="J151" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s151.1.un -2 s151.2.un -S s151.un.bt2.sam --no-unal --al-conc ./s151.zoox --un-conc trash/s151.junk</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>871</v>
+      </c>
+      <c r="B152" t="str">
+        <f t="shared" si="6"/>
+        <v>s152.1.un</v>
+      </c>
+      <c r="D152" t="s">
+        <v>871</v>
+      </c>
+      <c r="E152" t="str">
+        <f t="shared" si="7"/>
+        <v>s152.2.un</v>
+      </c>
+      <c r="H152" t="s">
+        <v>871</v>
+      </c>
+      <c r="J152" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s152.1.un -2 s152.2.un -S s152.un.bt2.sam --no-unal --al-conc ./s152.zoox --un-conc trash/s152.junk</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>872</v>
+      </c>
+      <c r="B153" t="str">
+        <f t="shared" si="6"/>
+        <v>s153.1.un</v>
+      </c>
+      <c r="D153" t="s">
+        <v>872</v>
+      </c>
+      <c r="E153" t="str">
+        <f t="shared" si="7"/>
+        <v>s153.2.un</v>
+      </c>
+      <c r="H153" t="s">
+        <v>872</v>
+      </c>
+      <c r="J153" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s153.1.un -2 s153.2.un -S s153.un.bt2.sam --no-unal --al-conc ./s153.zoox --un-conc trash/s153.junk</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>873</v>
+      </c>
+      <c r="B154" t="str">
+        <f t="shared" si="6"/>
+        <v>s154.1.un</v>
+      </c>
+      <c r="D154" t="s">
+        <v>873</v>
+      </c>
+      <c r="E154" t="str">
+        <f t="shared" si="7"/>
+        <v>s154.2.un</v>
+      </c>
+      <c r="H154" t="s">
+        <v>873</v>
+      </c>
+      <c r="J154" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s154.1.un -2 s154.2.un -S s154.un.bt2.sam --no-unal --al-conc ./s154.zoox --un-conc trash/s154.junk</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>874</v>
+      </c>
+      <c r="B155" t="str">
+        <f t="shared" si="6"/>
+        <v>s155.1.un</v>
+      </c>
+      <c r="D155" t="s">
+        <v>874</v>
+      </c>
+      <c r="E155" t="str">
+        <f t="shared" si="7"/>
+        <v>s155.2.un</v>
+      </c>
+      <c r="H155" t="s">
+        <v>874</v>
+      </c>
+      <c r="J155" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s155.1.un -2 s155.2.un -S s155.un.bt2.sam --no-unal --al-conc ./s155.zoox --un-conc trash/s155.junk</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>875</v>
+      </c>
+      <c r="B156" t="str">
+        <f t="shared" si="6"/>
+        <v>s156.1.un</v>
+      </c>
+      <c r="D156" t="s">
+        <v>875</v>
+      </c>
+      <c r="E156" t="str">
+        <f t="shared" si="7"/>
+        <v>s156.2.un</v>
+      </c>
+      <c r="H156" t="s">
+        <v>875</v>
+      </c>
+      <c r="J156" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s156.1.un -2 s156.2.un -S s156.un.bt2.sam --no-unal --al-conc ./s156.zoox --un-conc trash/s156.junk</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>876</v>
+      </c>
+      <c r="B157" t="str">
+        <f t="shared" si="6"/>
+        <v>s157.1.un</v>
+      </c>
+      <c r="D157" t="s">
+        <v>876</v>
+      </c>
+      <c r="E157" t="str">
+        <f t="shared" si="7"/>
+        <v>s157.2.un</v>
+      </c>
+      <c r="H157" t="s">
+        <v>876</v>
+      </c>
+      <c r="J157" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s157.1.un -2 s157.2.un -S s157.un.bt2.sam --no-unal --al-conc ./s157.zoox --un-conc trash/s157.junk</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>877</v>
+      </c>
+      <c r="B158" t="str">
+        <f t="shared" si="6"/>
+        <v>s158.1.un</v>
+      </c>
+      <c r="D158" t="s">
+        <v>877</v>
+      </c>
+      <c r="E158" t="str">
+        <f t="shared" si="7"/>
+        <v>s158.2.un</v>
+      </c>
+      <c r="H158" t="s">
+        <v>877</v>
+      </c>
+      <c r="J158" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s158.1.un -2 s158.2.un -S s158.un.bt2.sam --no-unal --al-conc ./s158.zoox --un-conc trash/s158.junk</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>878</v>
+      </c>
+      <c r="B159" t="str">
+        <f t="shared" si="6"/>
+        <v>s159.1.un</v>
+      </c>
+      <c r="D159" t="s">
+        <v>878</v>
+      </c>
+      <c r="E159" t="str">
+        <f t="shared" si="7"/>
+        <v>s159.2.un</v>
+      </c>
+      <c r="H159" t="s">
+        <v>878</v>
+      </c>
+      <c r="J159" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s159.1.un -2 s159.2.un -S s159.un.bt2.sam --no-unal --al-conc ./s159.zoox --un-conc trash/s159.junk</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>879</v>
+      </c>
+      <c r="B160" t="str">
+        <f t="shared" si="6"/>
+        <v>s160.1.un</v>
+      </c>
+      <c r="D160" t="s">
+        <v>879</v>
+      </c>
+      <c r="E160" t="str">
+        <f t="shared" si="7"/>
+        <v>s160.2.un</v>
+      </c>
+      <c r="H160" t="s">
+        <v>879</v>
+      </c>
+      <c r="J160" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s160.1.un -2 s160.2.un -S s160.un.bt2.sam --no-unal --al-conc ./s160.zoox --un-conc trash/s160.junk</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>880</v>
+      </c>
+      <c r="B161" t="str">
+        <f t="shared" si="6"/>
+        <v>s161.1.un</v>
+      </c>
+      <c r="D161" t="s">
+        <v>880</v>
+      </c>
+      <c r="E161" t="str">
+        <f t="shared" si="7"/>
+        <v>s161.2.un</v>
+      </c>
+      <c r="H161" t="s">
+        <v>880</v>
+      </c>
+      <c r="J161" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s161.1.un -2 s161.2.un -S s161.un.bt2.sam --no-unal --al-conc ./s161.zoox --un-conc trash/s161.junk</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>881</v>
+      </c>
+      <c r="B162" t="str">
+        <f t="shared" si="6"/>
+        <v>s162.1.un</v>
+      </c>
+      <c r="D162" t="s">
+        <v>881</v>
+      </c>
+      <c r="E162" t="str">
+        <f t="shared" si="7"/>
+        <v>s162.2.un</v>
+      </c>
+      <c r="H162" t="s">
+        <v>881</v>
+      </c>
+      <c r="J162" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s162.1.un -2 s162.2.un -S s162.un.bt2.sam --no-unal --al-conc ./s162.zoox --un-conc trash/s162.junk</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>882</v>
+      </c>
+      <c r="B163" t="str">
+        <f t="shared" si="6"/>
+        <v>s163.1.un</v>
+      </c>
+      <c r="D163" t="s">
+        <v>882</v>
+      </c>
+      <c r="E163" t="str">
+        <f t="shared" si="7"/>
+        <v>s163.2.un</v>
+      </c>
+      <c r="H163" t="s">
+        <v>882</v>
+      </c>
+      <c r="J163" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s163.1.un -2 s163.2.un -S s163.un.bt2.sam --no-unal --al-conc ./s163.zoox --un-conc trash/s163.junk</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>883</v>
+      </c>
+      <c r="B164" t="str">
+        <f t="shared" si="6"/>
+        <v>s164.1.un</v>
+      </c>
+      <c r="D164" t="s">
+        <v>883</v>
+      </c>
+      <c r="E164" t="str">
+        <f t="shared" si="7"/>
+        <v>s164.2.un</v>
+      </c>
+      <c r="H164" t="s">
+        <v>883</v>
+      </c>
+      <c r="J164" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s164.1.un -2 s164.2.un -S s164.un.bt2.sam --no-unal --al-conc ./s164.zoox --un-conc trash/s164.junk</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>884</v>
+      </c>
+      <c r="B165" t="str">
+        <f t="shared" si="6"/>
+        <v>s165.1.un</v>
+      </c>
+      <c r="D165" t="s">
+        <v>884</v>
+      </c>
+      <c r="E165" t="str">
+        <f t="shared" si="7"/>
+        <v>s165.2.un</v>
+      </c>
+      <c r="H165" t="s">
+        <v>884</v>
+      </c>
+      <c r="J165" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s165.1.un -2 s165.2.un -S s165.un.bt2.sam --no-unal --al-conc ./s165.zoox --un-conc trash/s165.junk</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>885</v>
+      </c>
+      <c r="B166" t="str">
+        <f t="shared" si="6"/>
+        <v>s166.1.un</v>
+      </c>
+      <c r="D166" t="s">
+        <v>885</v>
+      </c>
+      <c r="E166" t="str">
+        <f t="shared" si="7"/>
+        <v>s166.2.un</v>
+      </c>
+      <c r="H166" t="s">
+        <v>885</v>
+      </c>
+      <c r="J166" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s166.1.un -2 s166.2.un -S s166.un.bt2.sam --no-unal --al-conc ./s166.zoox --un-conc trash/s166.junk</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>886</v>
+      </c>
+      <c r="B167" t="str">
+        <f t="shared" si="6"/>
+        <v>s167.1.un</v>
+      </c>
+      <c r="D167" t="s">
+        <v>886</v>
+      </c>
+      <c r="E167" t="str">
+        <f t="shared" si="7"/>
+        <v>s167.2.un</v>
+      </c>
+      <c r="H167" t="s">
+        <v>886</v>
+      </c>
+      <c r="J167" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s167.1.un -2 s167.2.un -S s167.un.bt2.sam --no-unal --al-conc ./s167.zoox --un-conc trash/s167.junk</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>887</v>
+      </c>
+      <c r="B168" t="str">
+        <f t="shared" si="6"/>
+        <v>s168.1.un</v>
+      </c>
+      <c r="D168" t="s">
+        <v>887</v>
+      </c>
+      <c r="E168" t="str">
+        <f t="shared" si="7"/>
+        <v>s168.2.un</v>
+      </c>
+      <c r="H168" t="s">
+        <v>887</v>
+      </c>
+      <c r="J168" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s168.1.un -2 s168.2.un -S s168.un.bt2.sam --no-unal --al-conc ./s168.zoox --un-conc trash/s168.junk</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>888</v>
+      </c>
+      <c r="B169" t="str">
+        <f t="shared" si="6"/>
+        <v>s169.1.un</v>
+      </c>
+      <c r="D169" t="s">
+        <v>888</v>
+      </c>
+      <c r="E169" t="str">
+        <f t="shared" si="7"/>
+        <v>s169.2.un</v>
+      </c>
+      <c r="H169" t="s">
+        <v>888</v>
+      </c>
+      <c r="J169" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s169.1.un -2 s169.2.un -S s169.un.bt2.sam --no-unal --al-conc ./s169.zoox --un-conc trash/s169.junk</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>889</v>
+      </c>
+      <c r="B170" t="str">
+        <f t="shared" si="6"/>
+        <v>s170.1.un</v>
+      </c>
+      <c r="D170" t="s">
+        <v>889</v>
+      </c>
+      <c r="E170" t="str">
+        <f t="shared" si="7"/>
+        <v>s170.2.un</v>
+      </c>
+      <c r="H170" t="s">
+        <v>889</v>
+      </c>
+      <c r="J170" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s170.1.un -2 s170.2.un -S s170.un.bt2.sam --no-unal --al-conc ./s170.zoox --un-conc trash/s170.junk</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>890</v>
+      </c>
+      <c r="B171" t="str">
+        <f t="shared" si="6"/>
+        <v>s171.1.un</v>
+      </c>
+      <c r="D171" t="s">
+        <v>890</v>
+      </c>
+      <c r="E171" t="str">
+        <f t="shared" si="7"/>
+        <v>s171.2.un</v>
+      </c>
+      <c r="H171" t="s">
+        <v>890</v>
+      </c>
+      <c r="J171" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s171.1.un -2 s171.2.un -S s171.un.bt2.sam --no-unal --al-conc ./s171.zoox --un-conc trash/s171.junk</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>891</v>
+      </c>
+      <c r="B172" t="str">
+        <f t="shared" si="6"/>
+        <v>s172.1.un</v>
+      </c>
+      <c r="D172" t="s">
+        <v>891</v>
+      </c>
+      <c r="E172" t="str">
+        <f t="shared" si="7"/>
+        <v>s172.2.un</v>
+      </c>
+      <c r="H172" t="s">
+        <v>891</v>
+      </c>
+      <c r="J172" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s172.1.un -2 s172.2.un -S s172.un.bt2.sam --no-unal --al-conc ./s172.zoox --un-conc trash/s172.junk</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>892</v>
+      </c>
+      <c r="B173" t="str">
+        <f t="shared" si="6"/>
+        <v>s173.1.un</v>
+      </c>
+      <c r="D173" t="s">
+        <v>892</v>
+      </c>
+      <c r="E173" t="str">
+        <f t="shared" si="7"/>
+        <v>s173.2.un</v>
+      </c>
+      <c r="H173" t="s">
+        <v>892</v>
+      </c>
+      <c r="J173" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s173.1.un -2 s173.2.un -S s173.un.bt2.sam --no-unal --al-conc ./s173.zoox --un-conc trash/s173.junk</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>893</v>
+      </c>
+      <c r="B174" t="str">
+        <f t="shared" si="6"/>
+        <v>s174.1.un</v>
+      </c>
+      <c r="D174" t="s">
+        <v>893</v>
+      </c>
+      <c r="E174" t="str">
+        <f t="shared" si="7"/>
+        <v>s174.2.un</v>
+      </c>
+      <c r="H174" t="s">
+        <v>893</v>
+      </c>
+      <c r="J174" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s174.1.un -2 s174.2.un -S s174.un.bt2.sam --no-unal --al-conc ./s174.zoox --un-conc trash/s174.junk</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>894</v>
+      </c>
+      <c r="B175" t="str">
+        <f t="shared" si="6"/>
+        <v>s175.1.un</v>
+      </c>
+      <c r="D175" t="s">
+        <v>894</v>
+      </c>
+      <c r="E175" t="str">
+        <f t="shared" si="7"/>
+        <v>s175.2.un</v>
+      </c>
+      <c r="H175" t="s">
+        <v>894</v>
+      </c>
+      <c r="J175" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s175.1.un -2 s175.2.un -S s175.un.bt2.sam --no-unal --al-conc ./s175.zoox --un-conc trash/s175.junk</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>895</v>
+      </c>
+      <c r="B176" t="str">
+        <f t="shared" si="6"/>
+        <v>s176.1.un</v>
+      </c>
+      <c r="D176" t="s">
+        <v>895</v>
+      </c>
+      <c r="E176" t="str">
+        <f t="shared" si="7"/>
+        <v>s176.2.un</v>
+      </c>
+      <c r="H176" t="s">
+        <v>895</v>
+      </c>
+      <c r="J176" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s176.1.un -2 s176.2.un -S s176.un.bt2.sam --no-unal --al-conc ./s176.zoox --un-conc trash/s176.junk</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>896</v>
+      </c>
+      <c r="B177" t="str">
+        <f t="shared" si="6"/>
+        <v>s177.1.un</v>
+      </c>
+      <c r="D177" t="s">
+        <v>896</v>
+      </c>
+      <c r="E177" t="str">
+        <f t="shared" si="7"/>
+        <v>s177.2.un</v>
+      </c>
+      <c r="H177" t="s">
+        <v>896</v>
+      </c>
+      <c r="J177" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s177.1.un -2 s177.2.un -S s177.un.bt2.sam --no-unal --al-conc ./s177.zoox --un-conc trash/s177.junk</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>897</v>
+      </c>
+      <c r="B178" t="str">
+        <f t="shared" si="6"/>
+        <v>s178.1.un</v>
+      </c>
+      <c r="D178" t="s">
+        <v>897</v>
+      </c>
+      <c r="E178" t="str">
+        <f t="shared" si="7"/>
+        <v>s178.2.un</v>
+      </c>
+      <c r="H178" t="s">
+        <v>897</v>
+      </c>
+      <c r="J178" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s178.1.un -2 s178.2.un -S s178.un.bt2.sam --no-unal --al-conc ./s178.zoox --un-conc trash/s178.junk</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>898</v>
+      </c>
+      <c r="B179" t="str">
+        <f t="shared" si="6"/>
+        <v>s179.1.un</v>
+      </c>
+      <c r="D179" t="s">
+        <v>898</v>
+      </c>
+      <c r="E179" t="str">
+        <f t="shared" si="7"/>
+        <v>s179.2.un</v>
+      </c>
+      <c r="H179" t="s">
+        <v>898</v>
+      </c>
+      <c r="J179" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s179.1.un -2 s179.2.un -S s179.un.bt2.sam --no-unal --al-conc ./s179.zoox --un-conc trash/s179.junk</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>899</v>
+      </c>
+      <c r="B180" t="str">
+        <f t="shared" si="6"/>
+        <v>s180.1.un</v>
+      </c>
+      <c r="D180" t="s">
+        <v>899</v>
+      </c>
+      <c r="E180" t="str">
+        <f t="shared" si="7"/>
+        <v>s180.2.un</v>
+      </c>
+      <c r="H180" t="s">
+        <v>899</v>
+      </c>
+      <c r="J180" t="str">
+        <f t="shared" si="8"/>
+        <v>bowtie2 --score-min L,16,1 --local -L 16 -p 2 -x /mnt/beegfs/home/mstudiva/db/symGenomes/symbConcatGenome -1 s180.1.un -2 s180.2.un -S s180.un.bt2.sam --no-unal --al-conc ./s180.zoox --un-conc trash/s180.junk</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>